--- a/analysis/article_kcounts_cluster.xlsx
+++ b/analysis/article_kcounts_cluster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\00 technical\github\kz-qandy-qantar\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\kz-qandy-qantar\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BB7C6E-6BAC-450B-B656-8AA72EA1AD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7A080D-84D3-41CC-BE82-046D9D3E5823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="505">
   <si>
     <t>cluster</t>
   </si>
@@ -1531,16 +1531,22 @@
     <t>https://tengrinews.kz/kazakhstan_news/myi-lejali-detmi-koridore-dalekom-okon-meste-ochen-strashno-486641/</t>
   </si>
   <si>
-    <t>Cluster 1</t>
-  </si>
-  <si>
-    <t>Cluster 2</t>
-  </si>
-  <si>
     <t>Cluster 1 Keywords</t>
   </si>
   <si>
     <t>Cluster 2 Keywords</t>
+  </si>
+  <si>
+    <t>Cluster 1 News Outlets</t>
+  </si>
+  <si>
+    <t>Cluster 2 News Outlets</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>Average Keyword Counts by Cluster</t>
   </si>
 </sst>
 </file>
@@ -1635,67 +1641,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Keyword Counts by Cluster</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1710,7 +1656,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cluster 1</c:v>
+                  <c:v>Cluster 1 News Outlets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1830,7 +1776,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cluster 2</c:v>
+                  <c:v>Cluster 2 News Outlets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2705,15 +2651,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:colOff>149224</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>20637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3028,18 +2974,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="135.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="3" width="18.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="135.54296875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3053,7 +2999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3067,7 +3013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3081,7 +3027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3095,7 +3041,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3109,7 +3055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -3123,7 +3069,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -3137,7 +3083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -3151,7 +3097,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -3165,7 +3111,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -3179,7 +3125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -3193,7 +3139,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -3207,7 +3153,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -3221,7 +3167,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -3235,7 +3181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -3249,7 +3195,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -3263,7 +3209,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -3277,7 +3223,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -3291,7 +3237,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -3305,7 +3251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -3319,7 +3265,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -3333,7 +3279,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -3347,7 +3293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -3361,7 +3307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3375,7 +3321,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -3389,7 +3335,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -3403,7 +3349,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -3417,7 +3363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -3431,7 +3377,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -3445,7 +3391,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -3459,7 +3405,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -3473,7 +3419,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -3487,7 +3433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -3501,7 +3447,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -3515,7 +3461,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -3529,7 +3475,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -3543,7 +3489,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -3557,7 +3503,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -3571,7 +3517,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3585,7 +3531,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -3599,7 +3545,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -3613,7 +3559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -3627,7 +3573,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -3641,7 +3587,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -3655,7 +3601,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -3669,7 +3615,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -3683,7 +3629,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -3697,7 +3643,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -3711,7 +3657,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -3725,7 +3671,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -3739,7 +3685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -3753,7 +3699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -3767,7 +3713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -3781,7 +3727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -3795,7 +3741,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -3809,7 +3755,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -3823,7 +3769,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -3837,7 +3783,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -3851,7 +3797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -3865,7 +3811,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -3879,7 +3825,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -3893,7 +3839,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -3907,7 +3853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -3921,7 +3867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -3935,7 +3881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -3949,7 +3895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -3963,7 +3909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -3977,7 +3923,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -3991,7 +3937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -4005,7 +3951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -4019,7 +3965,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -4033,7 +3979,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -4047,7 +3993,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -4061,7 +4007,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>1</v>
       </c>
@@ -4075,7 +4021,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>1</v>
       </c>
@@ -4089,7 +4035,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>1</v>
       </c>
@@ -4103,7 +4049,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -4117,7 +4063,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>1</v>
       </c>
@@ -4131,7 +4077,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>1</v>
       </c>
@@ -4145,7 +4091,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>1</v>
       </c>
@@ -4159,7 +4105,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>1</v>
       </c>
@@ -4173,7 +4119,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>1</v>
       </c>
@@ -4187,7 +4133,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>1</v>
       </c>
@@ -4201,7 +4147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>1</v>
       </c>
@@ -4215,7 +4161,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>1</v>
       </c>
@@ -4229,7 +4175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>1</v>
       </c>
@@ -4243,7 +4189,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>1</v>
       </c>
@@ -4257,7 +4203,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>1</v>
       </c>
@@ -4271,7 +4217,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>1</v>
       </c>
@@ -4285,7 +4231,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>1</v>
       </c>
@@ -4299,7 +4245,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>1</v>
       </c>
@@ -4313,7 +4259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>1</v>
       </c>
@@ -4327,7 +4273,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>1</v>
       </c>
@@ -4341,7 +4287,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>1</v>
       </c>
@@ -4355,7 +4301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>1</v>
       </c>
@@ -4369,7 +4315,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>1</v>
       </c>
@@ -4383,7 +4329,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>1</v>
       </c>
@@ -4397,7 +4343,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>1</v>
       </c>
@@ -4411,7 +4357,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>1</v>
       </c>
@@ -4425,7 +4371,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>1</v>
       </c>
@@ -4439,7 +4385,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>1</v>
       </c>
@@ -4453,7 +4399,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>1</v>
       </c>
@@ -4467,7 +4413,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>1</v>
       </c>
@@ -4481,7 +4427,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>1</v>
       </c>
@@ -4495,7 +4441,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>1</v>
       </c>
@@ -4509,7 +4455,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>1</v>
       </c>
@@ -4523,7 +4469,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -4537,7 +4483,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -4551,7 +4497,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -4565,7 +4511,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>1</v>
       </c>
@@ -4579,7 +4525,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>1</v>
       </c>
@@ -4593,7 +4539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>1</v>
       </c>
@@ -4607,7 +4553,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>1</v>
       </c>
@@ -4621,7 +4567,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>1</v>
       </c>
@@ -4635,7 +4581,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>1</v>
       </c>
@@ -4649,7 +4595,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>1</v>
       </c>
@@ -4663,7 +4609,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>1</v>
       </c>
@@ -4677,7 +4623,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>1</v>
       </c>
@@ -4691,7 +4637,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>1</v>
       </c>
@@ -4705,7 +4651,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -4719,7 +4665,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>1</v>
       </c>
@@ -4733,7 +4679,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>1</v>
       </c>
@@ -4747,7 +4693,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>1</v>
       </c>
@@ -4761,7 +4707,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>1</v>
       </c>
@@ -4775,7 +4721,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>1</v>
       </c>
@@ -4789,7 +4735,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>1</v>
       </c>
@@ -4803,7 +4749,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>1</v>
       </c>
@@ -4817,7 +4763,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -4831,7 +4777,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>1</v>
       </c>
@@ -4845,7 +4791,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -4859,7 +4805,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>1</v>
       </c>
@@ -4873,7 +4819,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>1</v>
       </c>
@@ -4887,7 +4833,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>1</v>
       </c>
@@ -4901,7 +4847,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>1</v>
       </c>
@@ -4915,7 +4861,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>1</v>
       </c>
@@ -4929,7 +4875,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>1</v>
       </c>
@@ -4943,7 +4889,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -4957,7 +4903,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>1</v>
       </c>
@@ -4971,7 +4917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>1</v>
       </c>
@@ -4985,7 +4931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -4999,7 +4945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>1</v>
       </c>
@@ -5013,7 +4959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -5027,7 +4973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -5041,7 +4987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -5055,7 +5001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>1</v>
       </c>
@@ -5069,7 +5015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>1</v>
       </c>
@@ -5083,7 +5029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>1</v>
       </c>
@@ -5097,7 +5043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>1</v>
       </c>
@@ -5111,7 +5057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>1</v>
       </c>
@@ -5125,7 +5071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -5139,7 +5085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -5153,7 +5099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>1</v>
       </c>
@@ -5167,7 +5113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -5181,7 +5127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>1</v>
       </c>
@@ -5195,7 +5141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>1</v>
       </c>
@@ -5209,7 +5155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>1</v>
       </c>
@@ -5223,7 +5169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>1</v>
       </c>
@@ -5237,7 +5183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -5251,7 +5197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -5265,7 +5211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>1</v>
       </c>
@@ -5279,7 +5225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -5293,7 +5239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -5307,7 +5253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -5321,7 +5267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -5335,7 +5281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -5349,7 +5295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>1</v>
       </c>
@@ -5363,7 +5309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>1</v>
       </c>
@@ -5377,7 +5323,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -5391,7 +5337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>1</v>
       </c>
@@ -5405,7 +5351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>1</v>
       </c>
@@ -5419,7 +5365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>1</v>
       </c>
@@ -5433,7 +5379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>1</v>
       </c>
@@ -5447,7 +5393,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>1</v>
       </c>
@@ -5461,7 +5407,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>1</v>
       </c>
@@ -5475,7 +5421,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>1</v>
       </c>
@@ -5489,7 +5435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>1</v>
       </c>
@@ -5503,7 +5449,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>1</v>
       </c>
@@ -5517,7 +5463,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>1</v>
       </c>
@@ -5531,7 +5477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>1</v>
       </c>
@@ -5545,7 +5491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>1</v>
       </c>
@@ -5559,7 +5505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>1</v>
       </c>
@@ -5573,7 +5519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>1</v>
       </c>
@@ -5587,7 +5533,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>1</v>
       </c>
@@ -5601,7 +5547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>1</v>
       </c>
@@ -5615,7 +5561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -5629,7 +5575,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -5643,7 +5589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>1</v>
       </c>
@@ -5657,7 +5603,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -5671,7 +5617,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>1</v>
       </c>
@@ -5685,7 +5631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>1</v>
       </c>
@@ -5699,7 +5645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -5713,7 +5659,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>1</v>
       </c>
@@ -5727,7 +5673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>1</v>
       </c>
@@ -5741,7 +5687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>1</v>
       </c>
@@ -5755,7 +5701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>1</v>
       </c>
@@ -5769,7 +5715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -5783,7 +5729,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>1</v>
       </c>
@@ -5797,7 +5743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>1</v>
       </c>
@@ -5811,7 +5757,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>1</v>
       </c>
@@ -5825,7 +5771,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>1</v>
       </c>
@@ -5839,7 +5785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>1</v>
       </c>
@@ -5853,7 +5799,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>1</v>
       </c>
@@ -5867,7 +5813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>1</v>
       </c>
@@ -5881,7 +5827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>2</v>
       </c>
@@ -5895,7 +5841,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>2</v>
       </c>
@@ -5909,7 +5855,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>2</v>
       </c>
@@ -5923,7 +5869,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>2</v>
       </c>
@@ -5937,7 +5883,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>2</v>
       </c>
@@ -5951,7 +5897,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>2</v>
       </c>
@@ -5965,7 +5911,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>2</v>
       </c>
@@ -5979,7 +5925,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>2</v>
       </c>
@@ -5993,7 +5939,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>2</v>
       </c>
@@ -6007,7 +5953,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>2</v>
       </c>
@@ -6021,7 +5967,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>2</v>
       </c>
@@ -6035,7 +5981,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>2</v>
       </c>
@@ -6049,7 +5995,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>2</v>
       </c>
@@ -6063,7 +6009,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>2</v>
       </c>
@@ -6077,7 +6023,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>2</v>
       </c>
@@ -6091,7 +6037,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>2</v>
       </c>
@@ -6105,7 +6051,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>2</v>
       </c>
@@ -6119,7 +6065,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>2</v>
       </c>
@@ -6133,7 +6079,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>2</v>
       </c>
@@ -6147,7 +6093,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>2</v>
       </c>
@@ -6161,7 +6107,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>2</v>
       </c>
@@ -6175,7 +6121,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>2</v>
       </c>
@@ -6189,7 +6135,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>2</v>
       </c>
@@ -6203,7 +6149,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>2</v>
       </c>
@@ -6217,7 +6163,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>2</v>
       </c>
@@ -6231,7 +6177,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>2</v>
       </c>
@@ -6245,7 +6191,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>2</v>
       </c>
@@ -6259,7 +6205,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>2</v>
       </c>
@@ -6273,7 +6219,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>2</v>
       </c>
@@ -6287,7 +6233,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>2</v>
       </c>
@@ -6301,7 +6247,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>2</v>
       </c>
@@ -6315,7 +6261,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>2</v>
       </c>
@@ -6329,7 +6275,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>2</v>
       </c>
@@ -6343,7 +6289,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>2</v>
       </c>
@@ -6357,7 +6303,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>2</v>
       </c>
@@ -6371,7 +6317,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>2</v>
       </c>
@@ -6385,7 +6331,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>2</v>
       </c>
@@ -6399,7 +6345,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>2</v>
       </c>
@@ -6413,7 +6359,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>2</v>
       </c>
@@ -6427,7 +6373,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>2</v>
       </c>
@@ -6441,7 +6387,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>2</v>
       </c>
@@ -6455,7 +6401,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>2</v>
       </c>
@@ -6469,7 +6415,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>2</v>
       </c>
@@ -6483,7 +6429,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>2</v>
       </c>
@@ -6497,7 +6443,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>2</v>
       </c>
@@ -6511,7 +6457,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>2</v>
       </c>
@@ -6525,7 +6471,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>2</v>
       </c>
@@ -6539,7 +6485,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>2</v>
       </c>
@@ -6553,7 +6499,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>2</v>
       </c>
@@ -6567,7 +6513,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>2</v>
       </c>
@@ -6581,7 +6527,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>2</v>
       </c>
@@ -6595,7 +6541,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>2</v>
       </c>
@@ -6609,7 +6555,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>2</v>
       </c>
@@ -6623,7 +6569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>2</v>
       </c>
@@ -6637,7 +6583,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>2</v>
       </c>
@@ -6651,7 +6597,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>2</v>
       </c>
@@ -6665,7 +6611,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>2</v>
       </c>
@@ -6679,7 +6625,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>2</v>
       </c>
@@ -6693,7 +6639,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>2</v>
       </c>
@@ -6707,7 +6653,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>2</v>
       </c>
@@ -6721,7 +6667,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>2</v>
       </c>
@@ -6735,7 +6681,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>2</v>
       </c>
@@ -6749,7 +6695,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>2</v>
       </c>
@@ -6763,7 +6709,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>2</v>
       </c>
@@ -6777,7 +6723,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>2</v>
       </c>
@@ -6791,7 +6737,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>2</v>
       </c>
@@ -6805,7 +6751,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>2</v>
       </c>
@@ -6819,7 +6765,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>2</v>
       </c>
@@ -6833,7 +6779,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>2</v>
       </c>
@@ -6847,7 +6793,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>2</v>
       </c>
@@ -6861,7 +6807,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>2</v>
       </c>
@@ -6875,7 +6821,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>2</v>
       </c>
@@ -6889,7 +6835,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>2</v>
       </c>
@@ -6903,7 +6849,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>2</v>
       </c>
@@ -6917,7 +6863,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>2</v>
       </c>
@@ -6931,7 +6877,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>2</v>
       </c>
@@ -6945,7 +6891,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>2</v>
       </c>
@@ -6959,7 +6905,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>2</v>
       </c>
@@ -6973,7 +6919,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>2</v>
       </c>
@@ -6987,7 +6933,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>2</v>
       </c>
@@ -7001,7 +6947,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>2</v>
       </c>
@@ -7015,7 +6961,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>2</v>
       </c>
@@ -7029,7 +6975,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>2</v>
       </c>
@@ -7043,7 +6989,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>2</v>
       </c>
@@ -7057,7 +7003,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>2</v>
       </c>
@@ -7071,7 +7017,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>2</v>
       </c>
@@ -7085,7 +7031,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>2</v>
       </c>
@@ -7099,7 +7045,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>2</v>
       </c>
@@ -7113,7 +7059,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>2</v>
       </c>
@@ -7127,7 +7073,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>2</v>
       </c>
@@ -7141,7 +7087,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>2</v>
       </c>
@@ -7155,7 +7101,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>2</v>
       </c>
@@ -7169,7 +7115,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>2</v>
       </c>
@@ -7183,7 +7129,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>2</v>
       </c>
@@ -7197,7 +7143,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>2</v>
       </c>
@@ -7211,7 +7157,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>2</v>
       </c>
@@ -7225,7 +7171,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>2</v>
       </c>
@@ -7239,7 +7185,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>2</v>
       </c>
@@ -7253,7 +7199,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>2</v>
       </c>
@@ -7267,7 +7213,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>2</v>
       </c>
@@ -7281,7 +7227,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>2</v>
       </c>
@@ -7295,7 +7241,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>2</v>
       </c>
@@ -7309,7 +7255,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>2</v>
       </c>
@@ -7323,7 +7269,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>2</v>
       </c>
@@ -7337,7 +7283,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>2</v>
       </c>
@@ -7351,7 +7297,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>2</v>
       </c>
@@ -7365,7 +7311,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>2</v>
       </c>
@@ -7379,7 +7325,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>2</v>
       </c>
@@ -7393,7 +7339,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>2</v>
       </c>
@@ -7407,7 +7353,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>2</v>
       </c>
@@ -7421,7 +7367,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>2</v>
       </c>
@@ -7435,7 +7381,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>2</v>
       </c>
@@ -7449,7 +7395,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>2</v>
       </c>
@@ -7463,7 +7409,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>2</v>
       </c>
@@ -7477,7 +7423,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>2</v>
       </c>
@@ -7491,7 +7437,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>2</v>
       </c>
@@ -7505,7 +7451,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>2</v>
       </c>
@@ -7519,7 +7465,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>2</v>
       </c>
@@ -7533,7 +7479,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>2</v>
       </c>
@@ -7547,7 +7493,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>2</v>
       </c>
@@ -7561,7 +7507,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>2</v>
       </c>
@@ -7575,7 +7521,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>2</v>
       </c>
@@ -7589,7 +7535,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>2</v>
       </c>
@@ -7603,7 +7549,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>2</v>
       </c>
@@ -7617,7 +7563,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>2</v>
       </c>
@@ -7631,7 +7577,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>2</v>
       </c>
@@ -7645,7 +7591,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>2</v>
       </c>
@@ -7659,7 +7605,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>2</v>
       </c>
@@ -7673,7 +7619,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>2</v>
       </c>
@@ -7687,7 +7633,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>2</v>
       </c>
@@ -7701,7 +7647,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>2</v>
       </c>
@@ -7715,7 +7661,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>2</v>
       </c>
@@ -7729,7 +7675,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>2</v>
       </c>
@@ -7743,7 +7689,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>2</v>
       </c>
@@ -7757,7 +7703,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>2</v>
       </c>
@@ -7771,7 +7717,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>2</v>
       </c>
@@ -7785,7 +7731,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>2</v>
       </c>
@@ -7799,7 +7745,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>2</v>
       </c>
@@ -7813,7 +7759,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>2</v>
       </c>
@@ -7827,7 +7773,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>2</v>
       </c>
@@ -7841,7 +7787,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>2</v>
       </c>
@@ -7855,7 +7801,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>2</v>
       </c>
@@ -7869,7 +7815,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>2</v>
       </c>
@@ -7883,7 +7829,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>2</v>
       </c>
@@ -7897,7 +7843,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>2</v>
       </c>
@@ -7911,7 +7857,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>2</v>
       </c>
@@ -7925,7 +7871,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>2</v>
       </c>
@@ -7939,7 +7885,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>2</v>
       </c>
@@ -7953,7 +7899,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>2</v>
       </c>
@@ -7967,7 +7913,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>2</v>
       </c>
@@ -7981,7 +7927,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>2</v>
       </c>
@@ -7995,7 +7941,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>2</v>
       </c>
@@ -8009,7 +7955,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>2</v>
       </c>
@@ -8023,7 +7969,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>2</v>
       </c>
@@ -8037,7 +7983,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>2</v>
       </c>
@@ -8051,7 +7997,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>2</v>
       </c>
@@ -8065,7 +8011,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>2</v>
       </c>
@@ -8079,7 +8025,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>2</v>
       </c>
@@ -8093,7 +8039,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>2</v>
       </c>
@@ -8107,7 +8053,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>2</v>
       </c>
@@ -8121,7 +8067,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>2</v>
       </c>
@@ -8135,7 +8081,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>2</v>
       </c>
@@ -8149,7 +8095,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>2</v>
       </c>
@@ -8163,7 +8109,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>2</v>
       </c>
@@ -8177,7 +8123,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>2</v>
       </c>
@@ -8191,7 +8137,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>2</v>
       </c>
@@ -8205,7 +8151,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>2</v>
       </c>
@@ -8219,7 +8165,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>2</v>
       </c>
@@ -8233,7 +8179,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>2</v>
       </c>
@@ -8247,7 +8193,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>2</v>
       </c>
@@ -8261,7 +8207,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>2</v>
       </c>
@@ -8275,7 +8221,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>2</v>
       </c>
@@ -8289,7 +8235,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>2</v>
       </c>
@@ -8303,7 +8249,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>2</v>
       </c>
@@ -8317,7 +8263,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>2</v>
       </c>
@@ -8331,7 +8277,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>2</v>
       </c>
@@ -8345,7 +8291,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>2</v>
       </c>
@@ -8359,7 +8305,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>2</v>
       </c>
@@ -8373,7 +8319,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>2</v>
       </c>
@@ -8387,7 +8333,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>2</v>
       </c>
@@ -8401,7 +8347,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>2</v>
       </c>
@@ -8415,7 +8361,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>2</v>
       </c>
@@ -8429,7 +8375,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>2</v>
       </c>
@@ -8443,7 +8389,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>2</v>
       </c>
@@ -8457,7 +8403,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>2</v>
       </c>
@@ -8471,7 +8417,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>2</v>
       </c>
@@ -8485,7 +8431,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>2</v>
       </c>
@@ -8499,7 +8445,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>2</v>
       </c>
@@ -8513,7 +8459,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>2</v>
       </c>
@@ -8527,7 +8473,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>2</v>
       </c>
@@ -8541,7 +8487,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>2</v>
       </c>
@@ -8555,7 +8501,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>2</v>
       </c>
@@ -8569,7 +8515,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>2</v>
       </c>
@@ -8583,7 +8529,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>2</v>
       </c>
@@ -8597,7 +8543,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>2</v>
       </c>
@@ -8611,7 +8557,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>2</v>
       </c>
@@ -8625,7 +8571,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>2</v>
       </c>
@@ -8639,7 +8585,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>2</v>
       </c>
@@ -8653,7 +8599,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>2</v>
       </c>
@@ -8667,7 +8613,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>2</v>
       </c>
@@ -8681,7 +8627,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>2</v>
       </c>
@@ -8695,7 +8641,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>2</v>
       </c>
@@ -8709,7 +8655,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>2</v>
       </c>
@@ -8723,7 +8669,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>2</v>
       </c>
@@ -8737,7 +8683,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>2</v>
       </c>
@@ -8751,7 +8697,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>2</v>
       </c>
@@ -8765,7 +8711,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>2</v>
       </c>
@@ -8779,7 +8725,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>2</v>
       </c>
@@ -8793,7 +8739,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>2</v>
       </c>
@@ -8807,7 +8753,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>2</v>
       </c>
@@ -8821,7 +8767,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>2</v>
       </c>
@@ -8835,7 +8781,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>2</v>
       </c>
@@ -8849,7 +8795,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>2</v>
       </c>
@@ -8863,7 +8809,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>2</v>
       </c>
@@ -8877,7 +8823,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>2</v>
       </c>
@@ -8891,7 +8837,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>2</v>
       </c>
@@ -8905,7 +8851,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>2</v>
       </c>
@@ -8919,7 +8865,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>2</v>
       </c>
@@ -8933,7 +8879,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>2</v>
       </c>
@@ -8947,7 +8893,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>2</v>
       </c>
@@ -8961,7 +8907,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>2</v>
       </c>
@@ -8975,7 +8921,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>2</v>
       </c>
@@ -8989,7 +8935,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>2</v>
       </c>
@@ -9003,7 +8949,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>2</v>
       </c>
@@ -9017,7 +8963,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>2</v>
       </c>
@@ -9031,7 +8977,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>2</v>
       </c>
@@ -9045,7 +8991,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>2</v>
       </c>
@@ -9059,7 +9005,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>2</v>
       </c>
@@ -9073,7 +9019,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>2</v>
       </c>
@@ -9087,7 +9033,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>2</v>
       </c>
@@ -9101,7 +9047,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>2</v>
       </c>
@@ -9115,7 +9061,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>2</v>
       </c>
@@ -9129,7 +9075,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>2</v>
       </c>
@@ -9143,7 +9089,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>2</v>
       </c>
@@ -9157,7 +9103,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>2</v>
       </c>
@@ -9171,7 +9117,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>2</v>
       </c>
@@ -9185,7 +9131,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>2</v>
       </c>
@@ -9199,7 +9145,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>2</v>
       </c>
@@ -9213,7 +9159,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>2</v>
       </c>
@@ -9227,7 +9173,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>2</v>
       </c>
@@ -9241,7 +9187,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>2</v>
       </c>
@@ -9255,7 +9201,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>2</v>
       </c>
@@ -9269,7 +9215,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>2</v>
       </c>
@@ -9283,7 +9229,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>2</v>
       </c>
@@ -9297,7 +9243,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>2</v>
       </c>
@@ -9311,7 +9257,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>2</v>
       </c>
@@ -9325,7 +9271,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>2</v>
       </c>
@@ -9339,7 +9285,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>2</v>
       </c>
@@ -9353,7 +9299,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>2</v>
       </c>
@@ -9367,7 +9313,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>2</v>
       </c>
@@ -9381,7 +9327,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>2</v>
       </c>
@@ -9395,7 +9341,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>2</v>
       </c>
@@ -9409,7 +9355,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>2</v>
       </c>
@@ -9423,7 +9369,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>2</v>
       </c>
@@ -9437,7 +9383,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>2</v>
       </c>
@@ -9451,7 +9397,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>2</v>
       </c>
@@ -9465,7 +9411,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>2</v>
       </c>
@@ -9479,7 +9425,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>2</v>
       </c>
@@ -9493,7 +9439,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>2</v>
       </c>
@@ -9507,7 +9453,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>2</v>
       </c>
@@ -9521,7 +9467,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>2</v>
       </c>
@@ -9535,7 +9481,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>2</v>
       </c>
@@ -9549,7 +9495,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>2</v>
       </c>
@@ -9563,7 +9509,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>2</v>
       </c>
@@ -9577,7 +9523,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>2</v>
       </c>
@@ -9591,7 +9537,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>2</v>
       </c>
@@ -9605,7 +9551,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>2</v>
       </c>
@@ -9619,7 +9565,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>2</v>
       </c>
@@ -9633,7 +9579,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>2</v>
       </c>
@@ -9647,7 +9593,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>2</v>
       </c>
@@ -9661,7 +9607,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>2</v>
       </c>
@@ -9675,7 +9621,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>2</v>
       </c>
@@ -9689,7 +9635,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>2</v>
       </c>
@@ -9703,7 +9649,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>2</v>
       </c>
@@ -9717,7 +9663,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>2</v>
       </c>
@@ -9731,7 +9677,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>2</v>
       </c>
@@ -9745,7 +9691,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <v>2</v>
       </c>
@@ -9759,7 +9705,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>2</v>
       </c>
@@ -9773,7 +9719,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>2</v>
       </c>
@@ -9787,7 +9733,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
         <v>2</v>
       </c>
@@ -9801,7 +9747,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <v>2</v>
       </c>
@@ -9815,7 +9761,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <v>2</v>
       </c>
@@ -9829,7 +9775,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>2</v>
       </c>
@@ -9843,7 +9789,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
         <v>2</v>
       </c>
@@ -9857,7 +9803,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <v>2</v>
       </c>
@@ -9871,7 +9817,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
         <v>2</v>
       </c>
@@ -9885,7 +9831,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <v>2</v>
       </c>
@@ -9899,7 +9845,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
         <v>2</v>
       </c>
@@ -9913,7 +9859,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <v>2</v>
       </c>
@@ -9927,7 +9873,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" s="2">
         <v>2</v>
       </c>
@@ -9941,7 +9887,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <v>2</v>
       </c>
@@ -9955,7 +9901,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
         <v>2</v>
       </c>
@@ -9969,7 +9915,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <v>2</v>
       </c>
@@ -9983,7 +9929,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <v>2</v>
       </c>
@@ -9997,7 +9943,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
         <v>2</v>
       </c>
@@ -10011,7 +9957,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <v>2</v>
       </c>
@@ -10025,7 +9971,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
         <v>2</v>
       </c>
@@ -10039,7 +9985,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <v>2</v>
       </c>
@@ -10053,7 +9999,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
         <v>2</v>
       </c>
@@ -10067,7 +10013,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
         <v>2</v>
       </c>
@@ -10081,7 +10027,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" s="2">
         <v>2</v>
       </c>
@@ -10095,7 +10041,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <v>2</v>
       </c>
@@ -10109,7 +10055,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="2">
         <v>2</v>
       </c>
@@ -10123,7 +10069,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <v>2</v>
       </c>
@@ -10137,7 +10083,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508" s="2">
         <v>2</v>
       </c>
@@ -10151,7 +10097,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <v>2</v>
       </c>
@@ -10165,7 +10111,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" s="2">
         <v>2</v>
       </c>
@@ -10179,7 +10125,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <v>2</v>
       </c>
@@ -10204,28 +10150,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9759B1E2-87F8-451B-A7D8-1E6DC7F34BC4}">
-  <dimension ref="D7:F9"/>
+  <dimension ref="D7:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
         <v>501</v>
-      </c>
-      <c r="F7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>499</v>
       </c>
       <c r="E8">
         <f ca="1">ROUND(AVERAGEIF(Sheet1!$A:$C,1,Sheet1!B:B),3)</f>
@@ -10236,9 +10182,9 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E9">
         <f ca="1">ROUND(AVERAGEIF(Sheet1!$A:$C,2,Sheet1!B:B),3)</f>
@@ -10247,6 +10193,14 @@
       <c r="F9">
         <f ca="1">ROUND(AVERAGEIF(Sheet1!$A:$C,2,Sheet1!C:C),3)</f>
         <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E12" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
